--- a/DMSNewVSale_2025-11-17_16-57.xlsx
+++ b/DMSNewVSale_2025-11-17_16-57.xlsx
@@ -531,6 +531,15 @@
   </si>
   <si>
     <t>456.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
   </si>
   <si>
     <t xml:space="preserve">برفان القصاص </t>
@@ -2915,7 +2924,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,7 +2957,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2958,14 +2967,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2974,14 +2983,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2991,14 +3000,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3014,7 +3023,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3024,14 +3033,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3040,14 +3049,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3064,7 +3073,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3097,7 +3106,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>192</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3106,7 +3115,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3123,14 +3132,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>42</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3139,7 +3148,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3156,14 +3165,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3172,7 +3181,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3189,14 +3198,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3205,14 +3214,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3222,14 +3231,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,51 +3264,84 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>202</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>203</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>31</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>13</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="68" ht="25.5" customHeight="1">
-      <c r="N68" s="13">
-        <v>6235.25</v>
-      </c>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>201</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>202</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>203</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+    <row r="69" ht="26.25" customHeight="1">
+      <c r="N69" s="13">
+        <v>6260.25</v>
+      </c>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>204</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>205</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>206</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3613,10 +3655,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
